--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y477"/>
+  <dimension ref="A1:Y479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="R476" s="2" t="inlineStr"/>
     </row>
-    <row r="477">
+    <row r="477" ht="15" customHeight="1">
       <c r="A477" t="inlineStr">
         <is>
           <t>A 39361-2023</t>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28329,6 +28329,120 @@
         <v>0</v>
       </c>
       <c r="R477" s="2" t="inlineStr"/>
+    </row>
+    <row r="478" ht="15" customHeight="1">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>A 40894-2023</t>
+        </is>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C478" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N478" t="n">
+        <v>0</v>
+      </c>
+      <c r="O478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R478" s="2" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>A 41157-2023</t>
+        </is>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C479" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="n">
+        <v>0</v>
+      </c>
+      <c r="O479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R479" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y479"/>
+  <dimension ref="A1:Y483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="R478" s="2" t="inlineStr"/>
     </row>
-    <row r="479">
+    <row r="479" ht="15" customHeight="1">
       <c r="A479" t="inlineStr">
         <is>
           <t>A 41157-2023</t>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28443,6 +28443,234 @@
         <v>0</v>
       </c>
       <c r="R479" s="2" t="inlineStr"/>
+    </row>
+    <row r="480" ht="15" customHeight="1">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>A 41724-2023</t>
+        </is>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C480" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" t="n">
+        <v>0</v>
+      </c>
+      <c r="O480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R480" s="2" t="inlineStr"/>
+    </row>
+    <row r="481" ht="15" customHeight="1">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>A 41739-2023</t>
+        </is>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C481" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R481" s="2" t="inlineStr"/>
+    </row>
+    <row r="482" ht="15" customHeight="1">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>A 41744-2023</t>
+        </is>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C482" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>0</v>
+      </c>
+      <c r="O482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R482" s="2" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>A 41746-2023</t>
+        </is>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C483" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0</v>
+      </c>
+      <c r="K483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N483" t="n">
+        <v>0</v>
+      </c>
+      <c r="O483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R483" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y483"/>
+  <dimension ref="A1:Y485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 11347-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 11347-2019.xlsx", "A 11347-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 11347-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 11347-2019.png", "A 11347-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 11347-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 11347-2019.docx", "A 11347-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 11347-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 11347-2019.docx", "A 11347-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 11347-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 11347-2019.docx", "A 11347-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 11347-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 11347-2019.docx", "A 11347-2019")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 10894-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 10894-2019.xlsx", "A 10894-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 10894-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 10894-2019.png", "A 10894-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 10894-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 10894-2019.docx", "A 10894-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 10894-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 10894-2019.docx", "A 10894-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 10894-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 10894-2019.docx", "A 10894-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 10894-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 10894-2019.docx", "A 10894-2019")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 62662-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 62662-2019.xlsx", "A 62662-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 62662-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 62662-2019.png", "A 62662-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 62662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 62662-2019.docx", "A 62662-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 62662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 62662-2019.docx", "A 62662-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 62662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 62662-2019.docx", "A 62662-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 62662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 62662-2019.docx", "A 62662-2019")</f>
         <v/>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,27 +899,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 11386-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 11386-2019.xlsx", "A 11386-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 11386-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 11386-2019.png", "A 11386-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 11386-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 11386-2019.docx", "A 11386-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 11386-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 11386-2019.docx", "A 11386-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 11386-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 11386-2019.docx", "A 11386-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 11386-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 11386-2019.docx", "A 11386-2019")</f>
         <v/>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,31 +984,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 38365-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 38365-2019.xlsx", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 38365-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 38365-2019.png", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/knärot/A 38365-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/knärot/A 38365-2019.png", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 38365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 38365-2019.docx", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 38365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 38365-2019.docx", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 38365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 38365-2019.docx", "A 38365-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 38365-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 38365-2019.docx", "A 38365-2019")</f>
         <v/>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,27 +1078,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 15058-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 15058-2020.xlsx", "A 15058-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 15058-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 15058-2020.png", "A 15058-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 15058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 15058-2020.docx", "A 15058-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 15058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 15058-2020.docx", "A 15058-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 15058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 15058-2020.docx", "A 15058-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 15058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 15058-2020.docx", "A 15058-2020")</f>
         <v/>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1163,27 +1163,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 27698-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 27698-2020.xlsx", "A 27698-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 27698-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 27698-2020.png", "A 27698-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 27698-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 27698-2020.docx", "A 27698-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 27698-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 27698-2020.docx", "A 27698-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 27698-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 27698-2020.docx", "A 27698-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 27698-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 27698-2020.docx", "A 27698-2020")</f>
         <v/>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,27 +1248,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 35548-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 35548-2022.xlsx", "A 35548-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 35548-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 35548-2022.png", "A 35548-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 35548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 35548-2022.docx", "A 35548-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 35548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 35548-2022.docx", "A 35548-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 35548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 35548-2022.docx", "A 35548-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 35548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 35548-2022.docx", "A 35548-2022")</f>
         <v/>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1333,27 +1333,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 58-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 58-2023.xlsx", "A 58-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 58-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 58-2023.png", "A 58-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 58-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 58-2023.docx", "A 58-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 58-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 58-2023.docx", "A 58-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 58-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 58-2023.docx", "A 58-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 58-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 58-2023.docx", "A 58-2023")</f>
         <v/>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1418,27 +1418,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 22821-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 22821-2023.xlsx", "A 22821-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 22821-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 22821-2023.png", "A 22821-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 22821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 22821-2023.docx", "A 22821-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 22821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 22821-2023.docx", "A 22821-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 22821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 22821-2023.docx", "A 22821-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 22821-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 22821-2023.docx", "A 22821-2023")</f>
         <v/>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 27076-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 27076-2023.xlsx", "A 27076-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 27076-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 27076-2023.png", "A 27076-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 27076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 27076-2023.docx", "A 27076-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 27076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 27076-2023.docx", "A 27076-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 27076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 27076-2023.docx", "A 27076-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 27076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 27076-2023.docx", "A 27076-2023")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1593,27 +1593,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 30125-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/artfynd/A 30125-2023.xlsx", "A 30125-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 30125-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/kartor/A 30125-2023.png", "A 30125-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 30125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomål/A 30125-2023.docx", "A 30125-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 30125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/klagomålsmail/A 30125-2023.docx", "A 30125-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 30125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsyn/A 30125-2023.docx", "A 30125-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 30125-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EKSJO/tillsynsmail/A 30125-2023.docx", "A 30125-2023")</f>
         <v/>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
       </c>
       <c r="R482" s="2" t="inlineStr"/>
     </row>
-    <row r="483">
+    <row r="483" ht="15" customHeight="1">
       <c r="A483" t="inlineStr">
         <is>
           <t>A 41746-2023</t>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28671,6 +28671,120 @@
         <v>0</v>
       </c>
       <c r="R483" s="2" t="inlineStr"/>
+    </row>
+    <row r="484" ht="15" customHeight="1">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>A 43489-2023</t>
+        </is>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C484" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N484" t="n">
+        <v>0</v>
+      </c>
+      <c r="O484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R484" s="2" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>A 43483-2023</t>
+        </is>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C485" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0</v>
+      </c>
+      <c r="K485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N485" t="n">
+        <v>0</v>
+      </c>
+      <c r="O485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R485" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26972,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27200,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28682,7 +28682,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -620,12 +620,13 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe
 Svinrot
+Blomkålssvamp
 Vanlig padda
 Mattlummer
 Revlummer</t>
@@ -666,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1367,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1627,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2378,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2435,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2492,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2549,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2606,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2663,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2720,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2834,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2891,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2948,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3005,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3119,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3176,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3290,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3347,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3409,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3466,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3523,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3580,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3642,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4222,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4341,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4398,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4455,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4569,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4626,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4683,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4740,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4854,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5139,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5201,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5258,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5657,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5714,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5776,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5833,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6014,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6071,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6185,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6242,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6470,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6527,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6584,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6641,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7154,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7211,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7268,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7325,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7382,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7439,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7553,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7610,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7667,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7791,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7848,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7905,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7962,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8019,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8076,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8133,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8190,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8247,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8304,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8361,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8418,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8475,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8532,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8589,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8651,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8708,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8765,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8822,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8879,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8936,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8993,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9050,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9744,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10034,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10096,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10158,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10220,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10277,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10339,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10401,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10458,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10515,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10572,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10753,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10810,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10867,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10924,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10981,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11038,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11095,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11152,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11209,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11266,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11323,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11556,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11613,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11784,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11841,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11898,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12022,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12079,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12136,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12193,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12250,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12307,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12364,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12421,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12478,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12535,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12592,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12706,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12763,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12820,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12882,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12944,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13363,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13824,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14052,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14109,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14166,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14223,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14280,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14337,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14456,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15326,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15383,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15440,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15497,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15554,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15611,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15668,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15725,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15782,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15839,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15896,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16642,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16699,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16756,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16813,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16875,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16932,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16989,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17051,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17170,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17232,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17289,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17346,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17403,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17465,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17522,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17579,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17641,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17698,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17755,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17812,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17869,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17926,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17983,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18040,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18097,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18154,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18211,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18268,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18325,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18382,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18439,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18496,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18553,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18610,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18667,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18724,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18781,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20263,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20320,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21579,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21636,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21693,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21750,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21807,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21864,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21921,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21978,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22035,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22092,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22149,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22206,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22263,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22320,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22377,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22434,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22491,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22548,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22605,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22662,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22719,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22776,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22833,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22890,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22952,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23009,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23066,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23123,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23180,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23237,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23294,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23351,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23408,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23465,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23522,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23579,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23636,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23693,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23755,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23812,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23869,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23926,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23983,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24040,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24097,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24154,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24211,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24268,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24325,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24382,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24439,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24496,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24553,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24615,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24677,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24734,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24791,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24853,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24910,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24967,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25024,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25086,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25148,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25205,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25262,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25319,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25376,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25433,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25490,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25547,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25604,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25661,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25718,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25775,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25832,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25889,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25946,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26003,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26060,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26117,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26174,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26231,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26288,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26345,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26402,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26459,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26516,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26573,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26630,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26687,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26744,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26801,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26858,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26915,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26972,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27029,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27086,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27143,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27200,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27257,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27314,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27371,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27428,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27485,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27542,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27599,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27656,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27713,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27770,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27827,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27884,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27941,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27998,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28055,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28112,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28169,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28226,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28283,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28340,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28397,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28454,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28511,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28568,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28625,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28682,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28739,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y485"/>
+  <dimension ref="A1:Y488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="R484" s="2" t="inlineStr"/>
     </row>
-    <row r="485">
+    <row r="485" ht="15" customHeight="1">
       <c r="A485" t="inlineStr">
         <is>
           <t>A 43483-2023</t>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28786,6 +28786,177 @@
         <v>0</v>
       </c>
       <c r="R485" s="2" t="inlineStr"/>
+    </row>
+    <row r="486" ht="15" customHeight="1">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>A 46528-2023</t>
+        </is>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C486" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N486" t="n">
+        <v>0</v>
+      </c>
+      <c r="O486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R486" s="2" t="inlineStr"/>
+    </row>
+    <row r="487" ht="15" customHeight="1">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>A 46309-2023</t>
+        </is>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C487" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
+      <c r="K487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N487" t="n">
+        <v>0</v>
+      </c>
+      <c r="O487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R487" s="2" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>A 47022-2023</t>
+        </is>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C488" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" t="n">
+        <v>0</v>
+      </c>
+      <c r="O488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R488" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y488"/>
+  <dimension ref="A1:Y489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45197</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45197</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
       </c>
       <c r="R487" s="2" t="inlineStr"/>
     </row>
-    <row r="488">
+    <row r="488" ht="15" customHeight="1">
       <c r="A488" t="inlineStr">
         <is>
           <t>A 47022-2023</t>
@@ -28911,7 +28911,7 @@
         <v>45201</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28957,6 +28957,68 @@
         <v>0</v>
       </c>
       <c r="R488" s="2" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>A 47350-2023</t>
+        </is>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C489" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>EKSJÖ</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
+      <c r="K489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N489" t="n">
+        <v>0</v>
+      </c>
+      <c r="O489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R489" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45197</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45197</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>45201</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>45202</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>43347</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>43348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>43381</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>43401</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>43415</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43417</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43436</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>43441</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>43445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43451</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43452</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43455</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43462</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43490</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43504</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43514</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43517</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>43518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>43524</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43529</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43530</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43552</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43559</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43573</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>43586</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43591</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43606</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43612</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43627</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43628</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>43642</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>43647</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43661</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43672</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43676</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43691</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43698</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43699</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43701</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43707</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43710</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43714</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43717</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43718</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43719</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>43725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43727</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>43732</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43733</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43738</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43749</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43756</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43768</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43775</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43780</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43788</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>43797</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>43803</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>43808</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43809</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43817</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>43838</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>43839</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43847</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>43855</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>43856</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>43860</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>43864</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43866</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43879</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43895</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43903</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>43916</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>43917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>43936</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>43943</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>43945</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>43948</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>43950</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43955</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43980</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>43984</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>43986</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>43993</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44006</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44011</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44014</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44049</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44060</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44062</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44063</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>44078</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44083</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44091</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44095</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>44096</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>44102</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44106</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44116</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44117</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44123</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44127</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44137</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44139</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44140</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>44145</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44146</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44167</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44169</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44177</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44181</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44187</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44208</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44209</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44211</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>44214</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44215</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44216</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44223</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44230</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44235</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44237</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44239</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44274</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44281</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44294</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44298</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44302</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44306</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44309</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44314</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44319</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44320</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44323</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44324</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44340</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44341</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44349</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44363</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44364</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44365</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44391</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44412</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44425</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44427</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44431</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>44446</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>44452</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18839,7 +18839,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44467</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44469</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>44476</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>44487</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44490</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>44496</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44498</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44504</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44511</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>44512</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44515</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44516</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44523</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44544</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44546</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44572</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44574</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44580</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44582</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>44594</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44598</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>44600</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44609</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44615</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44616</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44620</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44655</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44684</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44701</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44739</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44746</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44753</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44782</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44783</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44789</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44792</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>44803</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>44813</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>44817</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44827</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44834</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44845</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44846</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44848</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>44851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>44853</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>44861</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44873</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44883</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44890</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44909</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44916</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44917</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44925</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44928</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>44939</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>44941</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44942</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44945</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44973</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44978</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>44987</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44991</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>45003</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>45006</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45042</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45049</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45057</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45060</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45068</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45071</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45072</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45075</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45078</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>45082</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>45089</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>45093</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>45096</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>45097</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>45107</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>45111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45112</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45114</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>45116</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27372,7 +27372,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27429,7 +27429,7 @@
         <v>45119</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45146</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45147</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45152</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27828,7 +27828,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27885,7 +27885,7 @@
         <v>45159</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45161</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45162</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45166</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45173</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45174</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45176</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45184</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45197</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28854,7 +28854,7 @@
         <v>45197</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28911,7 +28911,7 @@
         <v>45201</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>45202</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43685</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>43910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43994</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>44928</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45204</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43343</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43347</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>43347</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>43348</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43348</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>43381</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>43398</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>43398</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43401</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43413</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43415</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43417</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43417</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43436</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43436</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>43441</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43441</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>43445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43447</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43452</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>43455</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43462</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43483</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43486</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43490</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>43490</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43504</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43514</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43517</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43524</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>43528</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43529</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43530</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43552</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43559</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43568</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43572</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>43573</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43581</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43581</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43585</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43586</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43606</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>43627</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43642</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43647</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43647</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>43647</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>43647</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43649</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43661</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43661</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43676</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43679</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43690</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43691</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43698</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43698</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43699</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43701</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43707</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43710</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43710</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43714</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43714</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43714</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>43717</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43718</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43727</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43732</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43732</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43732</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>43732</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>43742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43746</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>43752</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>43756</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43756</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>43768</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>43780</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>43788</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43797</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43803</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43808</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43809</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43817</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43819</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43838</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43839</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43846</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43847</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43855</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43856</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43864</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43866</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43879</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>43879</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>43895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>43895</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43895</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43903</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43910</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>43916</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>43917</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43936</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43943</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43945</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>43948</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>43948</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>43948</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43950</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43950</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43950</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>43971</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>43980</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43984</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43986</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43993</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44006</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44011</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44014</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44014</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44014</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44019</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44020</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44028</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44028</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44028</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44055</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44060</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44060</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44062</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44063</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44069</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44069</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>44069</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44069</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44069</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44078</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44083</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44091</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44095</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44095</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44096</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>44102</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44102</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44103</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44105</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44106</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>44117</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>44120</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>44125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>44127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44137</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44139</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44140</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44144</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44144</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44146</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44152</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44152</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44167</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44169</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44177</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44186</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44208</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44211</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44214</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44215</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44216</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44223</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44225</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44230</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44235</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44235</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44237</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44239</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44239</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44239</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44239</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>44257</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>44274</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16790,7 +16790,7 @@
         <v>44281</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>44294</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44298</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>44302</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>44306</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>44309</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>44309</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44314</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44319</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>44320</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>44323</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>44323</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>44324</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>44334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>44340</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44341</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44341</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44341</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>44341</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44349</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44362</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44363</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44364</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44365</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44365</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44375</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44391</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>44412</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>44425</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>44427</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44431</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44431</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>44446</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>44452</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>44454</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>44454</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>44461</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>44462</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44467</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44469</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>44476</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>44481</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>44487</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44490</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>44496</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44498</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44504</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44511</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>44512</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>44515</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44515</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44516</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44516</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44523</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20069,7 +20069,7 @@
         <v>44523</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20126,7 +20126,7 @@
         <v>44544</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44546</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>44572</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44574</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>44580</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44582</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44592</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44594</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44598</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44600</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44600</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44609</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44610</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44610</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44615</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44616</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>44620</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>44629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44630</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44630</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44655</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44701</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>44701</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>44739</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44739</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44746</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44746</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44753</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44782</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44783</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44789</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44792</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44803</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44813</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44817</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>44820</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>44827</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44833</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44834</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44845</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44846</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44846</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44846</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44848</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44853</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44861</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>44861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44861</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44861</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44861</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44873</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44873</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44883</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44888</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44888</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44888</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44888</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44890</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44908</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44909</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44916</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44917</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44917</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44925</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44925</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>44925</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44925</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44925</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44928</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44939</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44941</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>44941</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>44942</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44942</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>44945</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44973</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>44974</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44974</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44978</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>44986</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44987</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44991</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45003</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45006</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45036</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45049</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45054</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>45054</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45057</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45057</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>45060</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45068</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45071</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45072</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>45075</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>45078</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45089</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45096</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45096</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45096</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45097</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45105</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45107</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45112</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45114</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45116</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45117</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45117</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45119</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45119</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45141</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45146</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45147</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45147</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45152</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45154</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45159</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45159</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45161</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45161</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45161</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45161</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45162</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45166</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45173</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45174</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45176</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45176</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45184</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45184</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45197</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45197</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45201</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45202</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45204</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
